--- a/Документы/Импорт.xlsx
+++ b/Документы/Импорт.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Saaaveeesss\Диплом\Документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\DW\Diplom\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949DD3E6-7C88-493C-A211-17DF2785F914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B55E725-F480-4F18-8D83-8A0D58036A72}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Группы инструментов" sheetId="2" r:id="rId1"/>
     <sheet name="Номенклатура инструментов" sheetId="1" r:id="rId2"/>
     <sheet name="Аналоги инструментов" sheetId="3" r:id="rId3"/>
     <sheet name="Поставщики" sheetId="4" r:id="rId4"/>
+    <sheet name="Цеха" sheetId="5" r:id="rId5"/>
+    <sheet name="Склады" sheetId="6" r:id="rId6"/>
+    <sheet name="Остатки" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="963">
   <si>
     <t>Наименование</t>
   </si>
@@ -2671,13 +2674,259 @@
   </si>
   <si>
     <t>Электродвигатели и приводная техника</t>
+  </si>
+  <si>
+    <t>ID_Цеха</t>
+  </si>
+  <si>
+    <t>Название_Цеха</t>
+  </si>
+  <si>
+    <t>Цех механической обработки</t>
+  </si>
+  <si>
+    <t>Цех сборки и монтажа</t>
+  </si>
+  <si>
+    <t>Цех композитных материалов</t>
+  </si>
+  <si>
+    <t>Цех термической обработки</t>
+  </si>
+  <si>
+    <t>Цех инструментального производства</t>
+  </si>
+  <si>
+    <t>Цех покраски и антикоррозии</t>
+  </si>
+  <si>
+    <t>Цех контроля качества</t>
+  </si>
+  <si>
+    <t>Цех испытаний</t>
+  </si>
+  <si>
+    <t>Цех литейного производства</t>
+  </si>
+  <si>
+    <t>Ремонтно-механический цех</t>
+  </si>
+  <si>
+    <t>StorageID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>WorkshopID</t>
+  </si>
+  <si>
+    <t>Склад материалов ЦМО</t>
+  </si>
+  <si>
+    <t>Склад готовой продукции ЦСМ</t>
+  </si>
+  <si>
+    <t>Склад сырья ЦКМ</t>
+  </si>
+  <si>
+    <t>Склад оснастки ЦИП</t>
+  </si>
+  <si>
+    <t>Склад готовой продукции ЦТК</t>
+  </si>
+  <si>
+    <t>Склад лакокрасочных материалов ЦПА</t>
+  </si>
+  <si>
+    <t>Склад испытательного оборудования ЦИ</t>
+  </si>
+  <si>
+    <t>Склад литья</t>
+  </si>
+  <si>
+    <t>Склад запчастей РМЦ</t>
+  </si>
+  <si>
+    <t>Склад ЦМО 2</t>
+  </si>
+  <si>
+    <t>Склад инструментов ЦСМ</t>
+  </si>
+  <si>
+    <t>Центральный инструментальный цех</t>
+  </si>
+  <si>
+    <t>Центральный инструментальный склад</t>
+  </si>
+  <si>
+    <t>BalanceID</t>
+  </si>
+  <si>
+    <t>NomenclatureNumber</t>
+  </si>
+  <si>
+    <t>BalanceDate</t>
+  </si>
+  <si>
+    <t>BatchNumber</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>BATCH-20240501-001</t>
+  </si>
+  <si>
+    <t>150.75</t>
+  </si>
+  <si>
+    <t>40101-01</t>
+  </si>
+  <si>
+    <t>BATCH-20240501-002</t>
+  </si>
+  <si>
+    <t>230.50</t>
+  </si>
+  <si>
+    <t>BATCH-20240502-003</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>40101-02</t>
+  </si>
+  <si>
+    <t>BATCH-20240503-004</t>
+  </si>
+  <si>
+    <t>75.20</t>
+  </si>
+  <si>
+    <t>40101-03</t>
+  </si>
+  <si>
+    <t>BATCH-20240503-005</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>40101-04</t>
+  </si>
+  <si>
+    <t>BATCH-20240504-006</t>
+  </si>
+  <si>
+    <t>40101-05</t>
+  </si>
+  <si>
+    <t>BATCH-20240504-007</t>
+  </si>
+  <si>
+    <t>25.50</t>
+  </si>
+  <si>
+    <t>BATCH-20240505-008</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>40101-06</t>
+  </si>
+  <si>
+    <t>BATCH-20240506-009</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>40101-07</t>
+  </si>
+  <si>
+    <t>BATCH-20240507-010</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>40101-08</t>
+  </si>
+  <si>
+    <t>BATCH-20240508-011</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>40101-09</t>
+  </si>
+  <si>
+    <t>BATCH-20240509-012</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>40101-10</t>
+  </si>
+  <si>
+    <t>BATCH-20240510-013</t>
+  </si>
+  <si>
+    <t>180.25</t>
+  </si>
+  <si>
+    <t>BATCH-20240511-014</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>BATCH-20240512-015</t>
+  </si>
+  <si>
+    <t>BATCH-20240513-016</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>BATCH-20240514-017</t>
+  </si>
+  <si>
+    <t>6200.00</t>
+  </si>
+  <si>
+    <t>BATCH-20240515-018</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>BATCH-20240516-019</t>
+  </si>
+  <si>
+    <t>15.75</t>
+  </si>
+  <si>
+    <t>BATCH-20240517-020</t>
+  </si>
+  <si>
+    <t>1500.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2713,6 +2962,13 @@
       <name val="Calibri "/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2722,10 +2978,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2734,7 +3016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2757,6 +3039,24 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3710,8 +4010,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7185,7 +7485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A0E1F-085C-491F-BEE1-D39030F3C372}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7472,4 +7772,794 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4084A77-5CED-4FBA-BFAE-5FC3B75121A8}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>907</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D8EE27-F367-4B11-B129-6F1768C09639}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="43.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" thickBot="1">
+      <c r="A1" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>894</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>896</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>897</v>
+      </c>
+      <c r="C3" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>898</v>
+      </c>
+      <c r="C4" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>899</v>
+      </c>
+      <c r="C5" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>900</v>
+      </c>
+      <c r="C6" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>901</v>
+      </c>
+      <c r="C7" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>902</v>
+      </c>
+      <c r="C8" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>903</v>
+      </c>
+      <c r="C9" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="C10" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>905</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>906</v>
+      </c>
+      <c r="C12" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="18">
+        <v>0</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>908</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3C1A28-29A3-45B6-820F-E32124768EB5}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="6" max="6" width="43.42578125" customWidth="1"/>
+    <col min="7" max="7" width="47.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="39.75" thickBot="1">
+      <c r="A1" s="16" t="s">
+        <v>909</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>910</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>911</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>912</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>913</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17">
+        <v>101</v>
+      </c>
+      <c r="D2" s="20">
+        <v>45413</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>915</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>916</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17">
+        <v>10001</v>
+      </c>
+      <c r="C3" s="17">
+        <v>101</v>
+      </c>
+      <c r="D3" s="20">
+        <v>45413</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>918</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>919</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17">
+        <v>20001</v>
+      </c>
+      <c r="C4" s="17">
+        <v>102</v>
+      </c>
+      <c r="D4" s="20">
+        <v>45414</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>920</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>921</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17">
+        <v>30001</v>
+      </c>
+      <c r="C5" s="17">
+        <v>103</v>
+      </c>
+      <c r="D5" s="20">
+        <v>45415</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>923</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>924</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17">
+        <v>40001</v>
+      </c>
+      <c r="C6" s="17">
+        <v>104</v>
+      </c>
+      <c r="D6" s="20">
+        <v>45415</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>926</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17">
+        <v>50001</v>
+      </c>
+      <c r="C7" s="17">
+        <v>105</v>
+      </c>
+      <c r="D7" s="20">
+        <v>45416</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="F7" s="21">
+        <v>36434</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17">
+        <v>60001</v>
+      </c>
+      <c r="C8" s="17">
+        <v>105</v>
+      </c>
+      <c r="D8" s="20">
+        <v>45416</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>931</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>932</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17">
+        <v>70001</v>
+      </c>
+      <c r="C9" s="17">
+        <v>106</v>
+      </c>
+      <c r="D9" s="20">
+        <v>45417</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>933</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>934</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17">
+        <v>80001</v>
+      </c>
+      <c r="C10" s="17">
+        <v>107</v>
+      </c>
+      <c r="D10" s="20">
+        <v>45418</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>936</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>937</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17">
+        <v>90001</v>
+      </c>
+      <c r="C11" s="17">
+        <v>108</v>
+      </c>
+      <c r="D11" s="20">
+        <v>45419</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>939</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>940</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17">
+        <v>100001</v>
+      </c>
+      <c r="C12" s="17">
+        <v>109</v>
+      </c>
+      <c r="D12" s="20">
+        <v>45420</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>942</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>943</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17">
+        <v>110001</v>
+      </c>
+      <c r="C13" s="17">
+        <v>110</v>
+      </c>
+      <c r="D13" s="20">
+        <v>45421</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>945</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>946</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17">
+        <v>120001</v>
+      </c>
+      <c r="C14" s="17">
+        <v>111</v>
+      </c>
+      <c r="D14" s="20">
+        <v>45422</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>948</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>949</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17">
+        <v>130001</v>
+      </c>
+      <c r="C15" s="17">
+        <v>112</v>
+      </c>
+      <c r="D15" s="20">
+        <v>45423</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>950</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>951</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A16" s="17">
+        <v>15</v>
+      </c>
+      <c r="B16" s="17">
+        <v>140001</v>
+      </c>
+      <c r="C16" s="17">
+        <v>105</v>
+      </c>
+      <c r="D16" s="20">
+        <v>45424</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>952</v>
+      </c>
+      <c r="F16" s="21">
+        <v>18384</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17">
+        <v>150001</v>
+      </c>
+      <c r="C17" s="17">
+        <v>101</v>
+      </c>
+      <c r="D17" s="20">
+        <v>45425</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>953</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>954</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A18" s="17">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17">
+        <v>160001</v>
+      </c>
+      <c r="C18" s="17">
+        <v>102</v>
+      </c>
+      <c r="D18" s="20">
+        <v>45426</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>955</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>956</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A19" s="17">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17">
+        <v>170001</v>
+      </c>
+      <c r="C19" s="17">
+        <v>103</v>
+      </c>
+      <c r="D19" s="20">
+        <v>45427</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>957</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>958</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A20" s="17">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17">
+        <v>180001</v>
+      </c>
+      <c r="C20" s="17">
+        <v>105</v>
+      </c>
+      <c r="D20" s="20">
+        <v>45428</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>959</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>960</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A21" s="17">
+        <v>20</v>
+      </c>
+      <c r="B21" s="17">
+        <v>190001</v>
+      </c>
+      <c r="C21" s="17">
+        <v>104</v>
+      </c>
+      <c r="D21" s="20">
+        <v>45429</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>961</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>962</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>928</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Документы/Импорт.xlsx
+++ b/Документы/Импорт.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\DW\Diplom\Документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Saaaveeesss\Диплом\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B55E725-F480-4F18-8D83-8A0D58036A72}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB8F926-6B09-4708-A98D-6AA50BC2BA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Группы инструментов" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="955">
   <si>
     <t>Наименование</t>
   </si>
@@ -1656,9 +1656,6 @@
     <t>TESTO</t>
   </si>
   <si>
-    <t>Ø12x60</t>
-  </si>
-  <si>
     <t>Т15К6</t>
   </si>
   <si>
@@ -1683,12 +1680,6 @@
     <t>KORLOY</t>
   </si>
   <si>
-    <t>Ø5x75</t>
-  </si>
-  <si>
-    <t>GUHRING</t>
-  </si>
-  <si>
     <t>000200003</t>
   </si>
   <si>
@@ -1734,12 +1725,6 @@
     <t>ВК8</t>
   </si>
   <si>
-    <t>TNMG160404</t>
-  </si>
-  <si>
-    <t>ISO 1832</t>
-  </si>
-  <si>
     <t>000400003</t>
   </si>
   <si>
@@ -1866,12 +1851,6 @@
     <t>001000002</t>
   </si>
   <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>WIHA</t>
-  </si>
-  <si>
     <t>001000003</t>
   </si>
   <si>
@@ -2346,18 +2325,12 @@
     <t>ISO 5468</t>
   </si>
   <si>
-    <t>Концевая 12мм DIN844</t>
-  </si>
-  <si>
     <t>Червячная модульная m1.5</t>
   </si>
   <si>
     <t>Торцевая 50мм с ТВП</t>
   </si>
   <si>
-    <t>Спиральное 5мм HSS</t>
-  </si>
-  <si>
     <t>Коническое 1-10мм</t>
   </si>
   <si>
@@ -2397,9 +2370,6 @@
     <t>Накидной 19мм</t>
   </si>
   <si>
-    <t>Крестовая PH2</t>
-  </si>
-  <si>
     <t>Шлицевая 6мм</t>
   </si>
   <si>
@@ -2920,18 +2890,32 @@
   </si>
   <si>
     <t>1500.00</t>
+  </si>
+  <si>
+    <t>Признак использования</t>
+  </si>
+  <si>
+    <t>Неснижаемый остаток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3016,47 +3000,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4000,7 +3991,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4008,10 +3999,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A145"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4027,7 +4018,7 @@
     <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -4049,9 +4040,14 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+      <c r="H1" s="22" t="s">
+        <v>953</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>183</v>
       </c>
@@ -4069,8 +4065,14 @@
         <v>167</v>
       </c>
       <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+      <c r="H2" s="24">
+        <v>0</v>
+      </c>
+      <c r="I2" s="24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>184</v>
       </c>
@@ -4086,8 +4088,14 @@
       <c r="G3" s="7" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+      <c r="H3" s="24">
+        <v>1</v>
+      </c>
+      <c r="I3" s="24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>185</v>
       </c>
@@ -4107,8 +4115,14 @@
         <v>172</v>
       </c>
       <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+      <c r="H4" s="24">
+        <v>2</v>
+      </c>
+      <c r="I4" s="24">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>186</v>
       </c>
@@ -4126,8 +4140,14 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+      <c r="H5" s="24">
+        <v>0</v>
+      </c>
+      <c r="I5" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>189</v>
       </c>
@@ -4145,8 +4165,14 @@
         <v>179</v>
       </c>
       <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+      <c r="H6" s="24">
+        <v>1</v>
+      </c>
+      <c r="I6" s="24">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>192</v>
       </c>
@@ -4164,8 +4190,14 @@
         <v>182</v>
       </c>
       <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="24">
+        <v>2</v>
+      </c>
+      <c r="I7" s="24">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="11" t="s">
         <v>193</v>
       </c>
@@ -4185,8 +4217,14 @@
       <c r="G8" s="6" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" s="24">
+        <v>0</v>
+      </c>
+      <c r="I8" s="24">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="11" t="s">
         <v>198</v>
       </c>
@@ -4208,8 +4246,14 @@
       <c r="G9" s="6" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" s="24">
+        <v>1</v>
+      </c>
+      <c r="I9" s="24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="11" t="s">
         <v>203</v>
       </c>
@@ -4229,8 +4273,14 @@
       <c r="G10" s="6" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" s="24">
+        <v>2</v>
+      </c>
+      <c r="I10" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="11" t="s">
         <v>208</v>
       </c>
@@ -4250,8 +4300,14 @@
       <c r="G11" s="6" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" s="24">
+        <v>0</v>
+      </c>
+      <c r="I11" s="24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="11" t="s">
         <v>211</v>
       </c>
@@ -4273,8 +4329,14 @@
       <c r="G12" s="6" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" s="24">
+        <v>1</v>
+      </c>
+      <c r="I12" s="24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="11" t="s">
         <v>216</v>
       </c>
@@ -4294,8 +4356,14 @@
       <c r="G13" s="6" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" s="24">
+        <v>2</v>
+      </c>
+      <c r="I13" s="24">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="11" t="s">
         <v>221</v>
       </c>
@@ -4315,8 +4383,14 @@
       <c r="G14" s="6" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="H14" s="24">
+        <v>0</v>
+      </c>
+      <c r="I14" s="24">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="11" t="s">
         <v>226</v>
       </c>
@@ -4336,8 +4410,14 @@
       <c r="G15" s="6" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15" s="24">
+        <v>1</v>
+      </c>
+      <c r="I15" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="11" t="s">
         <v>231</v>
       </c>
@@ -4357,8 +4437,14 @@
       <c r="G16" s="6" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="24">
+        <v>2</v>
+      </c>
+      <c r="I16" s="24">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="11" t="s">
         <v>236</v>
       </c>
@@ -4378,8 +4464,14 @@
       <c r="G17" s="6" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="24">
+        <v>0</v>
+      </c>
+      <c r="I17" s="24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="11" t="s">
         <v>241</v>
       </c>
@@ -4399,8 +4491,14 @@
       <c r="G18" s="6" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="24">
+        <v>1</v>
+      </c>
+      <c r="I18" s="24">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="11" t="s">
         <v>247</v>
       </c>
@@ -4420,8 +4518,14 @@
       <c r="G19" s="6" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="24">
+        <v>2</v>
+      </c>
+      <c r="I19" s="24">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="11" t="s">
         <v>252</v>
       </c>
@@ -4441,8 +4545,14 @@
       <c r="G20" s="6" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="24">
+        <v>0</v>
+      </c>
+      <c r="I20" s="24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="11" t="s">
         <v>257</v>
       </c>
@@ -4462,8 +4572,14 @@
       <c r="G21" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="24">
+        <v>1</v>
+      </c>
+      <c r="I21" s="24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="11" t="s">
         <v>262</v>
       </c>
@@ -4483,8 +4599,14 @@
       <c r="G22" s="6" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="24">
+        <v>2</v>
+      </c>
+      <c r="I22" s="24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="11" t="s">
         <v>267</v>
       </c>
@@ -4504,8 +4626,14 @@
       <c r="G23" s="6" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="24">
+        <v>0</v>
+      </c>
+      <c r="I23" s="24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="11" t="s">
         <v>272</v>
       </c>
@@ -4525,8 +4653,14 @@
       <c r="G24" s="6" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="24">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="11" t="s">
         <v>277</v>
       </c>
@@ -4546,8 +4680,14 @@
       <c r="G25" s="6" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="24">
+        <v>2</v>
+      </c>
+      <c r="I25" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="11" t="s">
         <v>282</v>
       </c>
@@ -4567,8 +4707,14 @@
       <c r="G26" s="6" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="24">
+        <v>0</v>
+      </c>
+      <c r="I26" s="24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="11" t="s">
         <v>288</v>
       </c>
@@ -4588,8 +4734,14 @@
       <c r="G27" s="6" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="24">
+        <v>1</v>
+      </c>
+      <c r="I27" s="24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="11" t="s">
         <v>293</v>
       </c>
@@ -4609,8 +4761,14 @@
       <c r="G28" s="6" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="24">
+        <v>2</v>
+      </c>
+      <c r="I28" s="24">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="11" t="s">
         <v>298</v>
       </c>
@@ -4630,8 +4788,14 @@
       <c r="G29" s="6" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="24">
+        <v>0</v>
+      </c>
+      <c r="I29" s="24">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="11" t="s">
         <v>303</v>
       </c>
@@ -4651,8 +4815,14 @@
       <c r="G30" s="6" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="24">
+        <v>1</v>
+      </c>
+      <c r="I30" s="24">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="11" t="s">
         <v>308</v>
       </c>
@@ -4672,8 +4842,14 @@
       <c r="G31" s="6" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="24">
+        <v>2</v>
+      </c>
+      <c r="I31" s="24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="11" t="s">
         <v>313</v>
       </c>
@@ -4693,8 +4869,14 @@
       <c r="G32" s="6" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="24">
+        <v>0</v>
+      </c>
+      <c r="I32" s="24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="11" t="s">
         <v>318</v>
       </c>
@@ -4714,8 +4896,14 @@
       <c r="G33" s="6" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="24">
+        <v>1</v>
+      </c>
+      <c r="I33" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="11" t="s">
         <v>323</v>
       </c>
@@ -4735,8 +4923,14 @@
       <c r="G34" s="6" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="24">
+        <v>2</v>
+      </c>
+      <c r="I34" s="24">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="11" t="s">
         <v>328</v>
       </c>
@@ -4756,8 +4950,14 @@
       <c r="G35" s="6" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="24">
+        <v>0</v>
+      </c>
+      <c r="I35" s="24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="11" t="s">
         <v>333</v>
       </c>
@@ -4777,8 +4977,14 @@
       <c r="G36" s="6" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="24">
+        <v>1</v>
+      </c>
+      <c r="I36" s="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="11" t="s">
         <v>338</v>
       </c>
@@ -4798,8 +5004,14 @@
       <c r="G37" s="6" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="24">
+        <v>2</v>
+      </c>
+      <c r="I37" s="24">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="11" t="s">
         <v>343</v>
       </c>
@@ -4819,8 +5031,14 @@
       <c r="G38" s="6" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="24">
+        <v>0</v>
+      </c>
+      <c r="I38" s="24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="11" t="s">
         <v>348</v>
       </c>
@@ -4840,8 +5058,14 @@
       <c r="G39" s="6" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="24">
+        <v>1</v>
+      </c>
+      <c r="I39" s="24">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="11" t="s">
         <v>352</v>
       </c>
@@ -4861,8 +5085,14 @@
       <c r="G40" s="6" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="24">
+        <v>2</v>
+      </c>
+      <c r="I40" s="24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="11" t="s">
         <v>356</v>
       </c>
@@ -4882,8 +5112,14 @@
       <c r="G41" s="6" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="24">
+        <v>0</v>
+      </c>
+      <c r="I41" s="24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="11" t="s">
         <v>359</v>
       </c>
@@ -4903,8 +5139,14 @@
       <c r="G42" s="6" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="24">
+        <v>1</v>
+      </c>
+      <c r="I42" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="11" t="s">
         <v>364</v>
       </c>
@@ -4924,8 +5166,14 @@
       <c r="G43" s="6" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="24">
+        <v>2</v>
+      </c>
+      <c r="I43" s="24">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="11" t="s">
         <v>369</v>
       </c>
@@ -4945,8 +5193,14 @@
       <c r="G44" s="6" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="24">
+        <v>0</v>
+      </c>
+      <c r="I44" s="24">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="11" t="s">
         <v>374</v>
       </c>
@@ -4966,8 +5220,14 @@
       <c r="G45" s="6" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="24">
+        <v>1</v>
+      </c>
+      <c r="I45" s="24">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="11" t="s">
         <v>378</v>
       </c>
@@ -4987,8 +5247,14 @@
       <c r="G46" s="6" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="24">
+        <v>2</v>
+      </c>
+      <c r="I46" s="24">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="11" t="s">
         <v>383</v>
       </c>
@@ -5008,8 +5274,14 @@
       <c r="G47" s="6" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="24">
+        <v>0</v>
+      </c>
+      <c r="I47" s="24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="11" t="s">
         <v>388</v>
       </c>
@@ -5029,8 +5301,14 @@
       <c r="G48" s="6" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="24">
+        <v>1</v>
+      </c>
+      <c r="I48" s="24">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="11" t="s">
         <v>393</v>
       </c>
@@ -5050,8 +5328,14 @@
       <c r="G49" s="6" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="24">
+        <v>2</v>
+      </c>
+      <c r="I49" s="24">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="11" t="s">
         <v>398</v>
       </c>
@@ -5071,8 +5355,14 @@
       <c r="G50" s="6" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="24">
+        <v>0</v>
+      </c>
+      <c r="I50" s="24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="11" t="s">
         <v>403</v>
       </c>
@@ -5092,8 +5382,14 @@
       <c r="G51" s="6" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="24">
+        <v>1</v>
+      </c>
+      <c r="I51" s="24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="11" t="s">
         <v>407</v>
       </c>
@@ -5113,8 +5409,14 @@
       <c r="G52" s="6" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="24">
+        <v>2</v>
+      </c>
+      <c r="I52" s="24">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="11" t="s">
         <v>412</v>
       </c>
@@ -5134,8 +5436,14 @@
       <c r="G53" s="6" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="24">
+        <v>0</v>
+      </c>
+      <c r="I53" s="24">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="11" t="s">
         <v>417</v>
       </c>
@@ -5155,8 +5463,14 @@
       <c r="G54" s="6" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="24">
+        <v>1</v>
+      </c>
+      <c r="I54" s="24">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="11" t="s">
         <v>421</v>
       </c>
@@ -5176,8 +5490,14 @@
       <c r="G55" s="6" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" s="24">
+        <v>2</v>
+      </c>
+      <c r="I55" s="24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="11" t="s">
         <v>425</v>
       </c>
@@ -5197,8 +5517,14 @@
       <c r="G56" s="6" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" s="24">
+        <v>0</v>
+      </c>
+      <c r="I56" s="24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="11" t="s">
         <v>430</v>
       </c>
@@ -5218,8 +5544,14 @@
       <c r="G57" s="6" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" s="24">
+        <v>1</v>
+      </c>
+      <c r="I57" s="24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="11" t="s">
         <v>434</v>
       </c>
@@ -5239,8 +5571,14 @@
       <c r="G58" s="6" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" s="24">
+        <v>2</v>
+      </c>
+      <c r="I58" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="11" t="s">
         <v>437</v>
       </c>
@@ -5260,8 +5598,14 @@
       <c r="G59" s="6" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" s="24">
+        <v>0</v>
+      </c>
+      <c r="I59" s="24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="11" t="s">
         <v>440</v>
       </c>
@@ -5281,8 +5625,14 @@
       <c r="G60" s="6" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" s="24">
+        <v>1</v>
+      </c>
+      <c r="I60" s="24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="11" t="s">
         <v>445</v>
       </c>
@@ -5302,8 +5652,14 @@
       <c r="G61" s="6" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" s="24">
+        <v>2</v>
+      </c>
+      <c r="I61" s="24">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="11" t="s">
         <v>450</v>
       </c>
@@ -5323,8 +5679,14 @@
       <c r="G62" s="6" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" s="24">
+        <v>0</v>
+      </c>
+      <c r="I62" s="24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="11" t="s">
         <v>454</v>
       </c>
@@ -5346,8 +5708,14 @@
       <c r="G63" s="6" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" s="24">
+        <v>1</v>
+      </c>
+      <c r="I63" s="24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="11" t="s">
         <v>458</v>
       </c>
@@ -5367,8 +5735,14 @@
       <c r="G64" s="6" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" s="24">
+        <v>2</v>
+      </c>
+      <c r="I64" s="24">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="11" t="s">
         <v>463</v>
       </c>
@@ -5388,8 +5762,14 @@
       <c r="G65" s="6" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" s="24">
+        <v>0</v>
+      </c>
+      <c r="I65" s="24">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="11" t="s">
         <v>468</v>
       </c>
@@ -5409,8 +5789,14 @@
       <c r="G66" s="6" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" s="24">
+        <v>1</v>
+      </c>
+      <c r="I66" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="11" t="s">
         <v>471</v>
       </c>
@@ -5430,8 +5816,14 @@
       <c r="G67" s="6" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" s="24">
+        <v>2</v>
+      </c>
+      <c r="I67" s="24">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="11" t="s">
         <v>475</v>
       </c>
@@ -5451,8 +5843,14 @@
       <c r="G68" s="6" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" s="24">
+        <v>0</v>
+      </c>
+      <c r="I68" s="24">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="11" t="s">
         <v>478</v>
       </c>
@@ -5472,8 +5870,14 @@
       <c r="G69" s="6" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" s="24">
+        <v>1</v>
+      </c>
+      <c r="I69" s="24">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="11" t="s">
         <v>483</v>
       </c>
@@ -5493,8 +5897,14 @@
       <c r="G70" s="6" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" s="24">
+        <v>2</v>
+      </c>
+      <c r="I70" s="24">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="11" t="s">
         <v>485</v>
       </c>
@@ -5514,8 +5924,14 @@
       <c r="G71" s="6" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" s="24">
+        <v>0</v>
+      </c>
+      <c r="I71" s="24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="11" t="s">
         <v>488</v>
       </c>
@@ -5535,8 +5951,14 @@
       <c r="G72" s="6" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" s="24">
+        <v>1</v>
+      </c>
+      <c r="I72" s="24">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="11" t="s">
         <v>492</v>
       </c>
@@ -5556,8 +5978,14 @@
       <c r="G73" s="6" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" s="24">
+        <v>2</v>
+      </c>
+      <c r="I73" s="24">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="11" t="s">
         <v>497</v>
       </c>
@@ -5577,8 +6005,14 @@
       <c r="G74" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" s="24">
+        <v>0</v>
+      </c>
+      <c r="I74" s="24">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="11" t="s">
         <v>500</v>
       </c>
@@ -5598,8 +6032,14 @@
       <c r="G75" s="6" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" s="24">
+        <v>1</v>
+      </c>
+      <c r="I75" s="24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="11" t="s">
         <v>503</v>
       </c>
@@ -5619,8 +6059,14 @@
       <c r="G76" s="6" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" s="24">
+        <v>2</v>
+      </c>
+      <c r="I76" s="24">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="11" t="s">
         <v>508</v>
       </c>
@@ -5640,8 +6086,14 @@
       <c r="G77" s="6" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" s="24">
+        <v>0</v>
+      </c>
+      <c r="I77" s="24">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="11" t="s">
         <v>513</v>
       </c>
@@ -5661,8 +6113,14 @@
       <c r="G78" s="6" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" s="24">
+        <v>1</v>
+      </c>
+      <c r="I78" s="24">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="11" t="s">
         <v>518</v>
       </c>
@@ -5682,8 +6140,14 @@
       <c r="G79" s="6" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" s="24">
+        <v>2</v>
+      </c>
+      <c r="I79" s="24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="11" t="s">
         <v>523</v>
       </c>
@@ -5703,8 +6167,14 @@
       <c r="G80" s="6" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" s="24">
+        <v>0</v>
+      </c>
+      <c r="I80" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="11" t="s">
         <v>528</v>
       </c>
@@ -5724,8 +6194,14 @@
       <c r="G81" s="6" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" s="24">
+        <v>1</v>
+      </c>
+      <c r="I81" s="24">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="11" t="s">
         <v>532</v>
       </c>
@@ -5745,8 +6221,14 @@
       <c r="G82" s="6" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" s="24">
+        <v>2</v>
+      </c>
+      <c r="I82" s="24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="11" t="s">
         <v>536</v>
       </c>
@@ -5766,1407 +6248,1669 @@
       <c r="G83" s="6" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83" s="24">
+        <v>0</v>
+      </c>
+      <c r="I83" s="24">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="11" t="s">
-        <v>193</v>
+        <v>542</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H84" s="24">
+        <v>2</v>
+      </c>
+      <c r="I84" s="24">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="H85" s="24">
+        <v>0</v>
+      </c>
+      <c r="I85" s="24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="H86" s="24">
+        <v>2</v>
+      </c>
+      <c r="I86" s="24">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H87" s="24">
+        <v>0</v>
+      </c>
+      <c r="I87" s="24">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H88" s="24">
+        <v>1</v>
+      </c>
+      <c r="I88" s="24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H89" s="24">
+        <v>2</v>
+      </c>
+      <c r="I89" s="24">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H90" s="24">
+        <v>1</v>
+      </c>
+      <c r="I90" s="24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H91" s="24">
+        <v>2</v>
+      </c>
+      <c r="I91" s="24">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="H92" s="24">
+        <v>0</v>
+      </c>
+      <c r="I92" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="B85" s="6" t="s">
+      <c r="C93" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H93" s="24">
+        <v>1</v>
+      </c>
+      <c r="I93" s="24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="B86" s="6" t="s">
+      <c r="C94" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="H94" s="24">
+        <v>2</v>
+      </c>
+      <c r="I94" s="24">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B87" s="6" t="s">
+      <c r="C95" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H95" s="24">
+        <v>0</v>
+      </c>
+      <c r="I95" s="24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="B88" s="6" t="s">
+      <c r="C96" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="H96" s="24">
+        <v>1</v>
+      </c>
+      <c r="I96" s="24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D88" s="6" t="s">
+      <c r="C97" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H97" s="24">
+        <v>2</v>
+      </c>
+      <c r="I97" s="24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="H98" s="24">
+        <v>0</v>
+      </c>
+      <c r="I98" s="24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D99" s="6">
+        <v>17</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H99" s="24">
+        <v>1</v>
+      </c>
+      <c r="I99" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D100" s="6">
+        <v>19</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="H100" s="24">
+        <v>2</v>
+      </c>
+      <c r="I100" s="24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H101" s="24">
+        <v>1</v>
+      </c>
+      <c r="I101" s="24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D102" s="12">
+        <v>18537</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H102" s="24">
+        <v>2</v>
+      </c>
+      <c r="I102" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="H103" s="24">
+        <v>0</v>
+      </c>
+      <c r="I103" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="G104" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="E88" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>782</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="B99" s="6" t="s">
+      <c r="H104" s="24">
+        <v>1</v>
+      </c>
+      <c r="I104" s="24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="11" t="s">
-        <v>596</v>
-      </c>
-      <c r="B100" s="6" t="s">
+      <c r="C105" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="H105" s="24">
+        <v>2</v>
+      </c>
+      <c r="I105" s="24">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="B101" s="6" t="s">
+      <c r="C106" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="H106" s="24">
+        <v>0</v>
+      </c>
+      <c r="I106" s="24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="11" t="s">
-        <v>604</v>
-      </c>
-      <c r="B102" s="6" t="s">
+      <c r="C107" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="H107" s="24">
+        <v>1</v>
+      </c>
+      <c r="I107" s="24">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D102" s="6">
-        <v>17</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="B103" s="6" t="s">
+      <c r="C108" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="H108" s="24">
+        <v>2</v>
+      </c>
+      <c r="I108" s="24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D103" s="6">
-        <v>19</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="B104" s="6" t="s">
+      <c r="C109" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H109" s="24">
+        <v>0</v>
+      </c>
+      <c r="I109" s="24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D106" s="12">
-        <v>18537</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="11" t="s">
-        <v>617</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>794</v>
-      </c>
       <c r="C110" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>636</v>
+      </c>
+      <c r="H110" s="24">
+        <v>1</v>
+      </c>
+      <c r="I110" s="24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="11" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>640</v>
+      </c>
+      <c r="H111" s="24">
+        <v>2</v>
+      </c>
+      <c r="I111" s="24">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="11" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>259</v>
+        <v>487</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>496</v>
+      </c>
+      <c r="H112" s="24">
+        <v>0</v>
+      </c>
+      <c r="I112" s="24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="11" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>797</v>
+        <v>643</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>491</v>
+      </c>
+      <c r="H113" s="24">
+        <v>1</v>
+      </c>
+      <c r="I113" s="24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="11" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>798</v>
+        <v>647</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6" t="s">
-        <v>265</v>
+        <v>470</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>649</v>
+      </c>
+      <c r="H114" s="24">
+        <v>2</v>
+      </c>
+      <c r="I114" s="24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="11" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>799</v>
+        <v>651</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6" t="s">
-        <v>646</v>
+        <v>275</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>653</v>
+      </c>
+      <c r="H115" s="24">
+        <v>0</v>
+      </c>
+      <c r="I115" s="24">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="11" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>800</v>
+        <v>655</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>487</v>
+        <v>656</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>657</v>
+      </c>
+      <c r="H116" s="24">
+        <v>1</v>
+      </c>
+      <c r="I116" s="24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="11" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>662</v>
+      </c>
+      <c r="H117" s="24">
+        <v>2</v>
+      </c>
+      <c r="I117" s="24">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="11" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>165</v>
+        <v>284</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="E118" s="6"/>
+        <v>665</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>285</v>
+      </c>
       <c r="F118" s="6" t="s">
-        <v>470</v>
+        <v>286</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>287</v>
+      </c>
+      <c r="H118" s="24">
+        <v>0</v>
+      </c>
+      <c r="I118" s="24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="11" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="E119" s="6"/>
+        <v>668</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>669</v>
+      </c>
       <c r="F119" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="H119" s="24">
+        <v>1</v>
+      </c>
+      <c r="I119" s="24">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H120" s="24">
+        <v>2</v>
+      </c>
+      <c r="I120" s="24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="H121" s="24">
+        <v>0</v>
+      </c>
+      <c r="I121" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H122" s="24">
+        <v>1</v>
+      </c>
+      <c r="I122" s="24">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H123" s="24">
+        <v>2</v>
+      </c>
+      <c r="I123" s="24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H124" s="24">
+        <v>0</v>
+      </c>
+      <c r="I124" s="24">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="H125" s="24">
+        <v>1</v>
+      </c>
+      <c r="I125" s="24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="H126" s="24">
+        <v>2</v>
+      </c>
+      <c r="I126" s="24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="H127" s="24">
+        <v>0</v>
+      </c>
+      <c r="I127" s="24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="H128" s="24">
+        <v>1</v>
+      </c>
+      <c r="I128" s="24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H129" s="24">
+        <v>2</v>
+      </c>
+      <c r="I129" s="24">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="H130" s="24">
+        <v>0</v>
+      </c>
+      <c r="I130" s="24">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="H131" s="24">
+        <v>1</v>
+      </c>
+      <c r="I131" s="24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="H132" s="24">
+        <v>2</v>
+      </c>
+      <c r="I132" s="24">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="F133" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="G119" s="6" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="11" t="s">
-        <v>665</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="11" t="s">
-        <v>670</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="11" t="s">
-        <v>673</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="11" t="s">
-        <v>679</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="G124" s="6" t="s">
+      <c r="G133" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="H133" s="24">
+        <v>0</v>
+      </c>
+      <c r="I133" s="24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H134" s="24">
+        <v>1</v>
+      </c>
+      <c r="I134" s="24">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="G135" s="6" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="11" t="s">
-        <v>682</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="11" t="s">
-        <v>691</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="F127" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="G127" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="F128" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="G128" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="B129" s="6" t="s">
+      <c r="H135" s="24">
+        <v>2</v>
+      </c>
+      <c r="I135" s="24">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D136" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D129" s="6" t="s">
+      <c r="E136" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="F136" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="E129" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="11" t="s">
+      <c r="G136" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="H136" s="24">
+        <v>0</v>
+      </c>
+      <c r="I136" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="F137" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="G137" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="C130" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="11" t="s">
-        <v>708</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="11" t="s">
-        <v>718</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="F133" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="11" t="s">
-        <v>722</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="F134" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="11" t="s">
-        <v>726</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="F135" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="G135" s="6" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="11" t="s">
-        <v>731</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="F136" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="11" t="s">
-        <v>735</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="F137" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137" s="24">
+        <v>1</v>
+      </c>
+      <c r="I137" s="24">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="11" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>633</v>
+        <v>340</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>743</v>
+        <v>341</v>
       </c>
       <c r="G138" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H138" s="24">
+        <v>2</v>
+      </c>
+      <c r="I138" s="24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="H139" s="24">
+        <v>2</v>
+      </c>
+      <c r="I139" s="24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="H140" s="24">
+        <v>0</v>
+      </c>
+      <c r="I140" s="24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="G141" s="6" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="11" t="s">
-        <v>744</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>746</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="F139" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="11" t="s">
-        <v>749</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="11" t="s">
-        <v>751</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="F141" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="G141" s="6" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="11" t="s">
-        <v>754</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="11" t="s">
-        <v>757</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="F143" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="11" t="s">
-        <v>761</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="F144" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="11" t="s">
-        <v>766</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="F145" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>332</v>
+      <c r="H141" s="24">
+        <v>2</v>
+      </c>
+      <c r="I141" s="24">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -7176,6 +7920,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FE6614-A04E-404E-AAE3-FDF84764F67F}">
+  <sheetPr codeName="Лист3"/>
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7190,10 +7935,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="13" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7209,7 +7954,7 @@
         <v>193</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7217,15 +7962,15 @@
         <v>198</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>561</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7233,244 +7978,244 @@
         <v>208</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="13" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="13" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="13" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="13" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="13" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="13" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="13" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="13" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="13" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="13" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="13" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="13" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="13" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="13" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="13" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="13" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="13" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="13" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="13" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="13" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="13" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="13" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="13" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="13" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="13" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="13" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="13" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="13" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="13" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="13" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>193</v>
@@ -7483,6 +8228,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A0E1F-085C-491F-BEE1-D39030F3C372}">
+  <sheetPr codeName="Лист4"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7499,203 +8245,203 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="15" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="15" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="15" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="15" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="15" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="15" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="15" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="15" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="15" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="15" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="15" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="15" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>53</v>
@@ -7703,70 +8449,70 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="15" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="15" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="15" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="15" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -7776,6 +8522,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4084A77-5CED-4FBA-BFAE-5FC3B75121A8}">
+  <sheetPr codeName="Лист5"/>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7789,10 +8536,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="B1" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7800,7 +8547,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7808,7 +8555,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7816,7 +8563,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7824,7 +8571,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7832,7 +8579,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7840,7 +8587,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7848,7 +8595,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7856,7 +8603,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7864,7 +8611,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7872,7 +8619,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7880,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
     </row>
   </sheetData>
@@ -7890,6 +8637,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D8EE27-F367-4B11-B129-6F1768C09639}">
+  <sheetPr codeName="Лист6"/>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -7903,15 +8651,15 @@
     <col min="3" max="3" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" thickBot="1">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="16" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
@@ -7919,7 +8667,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>
@@ -7930,7 +8678,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="C3" s="17">
         <v>2</v>
@@ -7941,7 +8689,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="C4" s="17">
         <v>3</v>
@@ -7952,7 +8700,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="C5" s="17">
         <v>5</v>
@@ -7963,7 +8711,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="C6" s="17">
         <v>7</v>
@@ -7974,7 +8722,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="C7" s="17">
         <v>6</v>
@@ -7985,7 +8733,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="C8" s="17">
         <v>8</v>
@@ -7996,7 +8744,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="C9" s="17">
         <v>9</v>
@@ -8007,7 +8755,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="C10" s="17">
         <v>10</v>
@@ -8018,7 +8766,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="C11" s="17">
         <v>1</v>
@@ -8029,7 +8777,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="C12" s="17">
         <v>2</v>
@@ -8040,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="C13" s="18">
         <v>0</v>
@@ -8059,9 +8807,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3C1A28-29A3-45B6-820F-E32124768EB5}">
+  <sheetPr codeName="Лист7"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -8076,27 +8825,27 @@
     <col min="7" max="7" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="16" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1">
@@ -8113,13 +8862,13 @@
         <v>45413</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1">
@@ -8136,13 +8885,13 @@
         <v>45413</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1">
@@ -8159,13 +8908,13 @@
         <v>45414</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1">
@@ -8182,13 +8931,13 @@
         <v>45415</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
@@ -8205,13 +8954,13 @@
         <v>45415</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1">
@@ -8228,13 +8977,13 @@
         <v>45416</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="F7" s="21">
         <v>36434</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
@@ -8251,13 +9000,13 @@
         <v>45416</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1">
@@ -8274,13 +9023,13 @@
         <v>45417</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1">
@@ -8297,13 +9046,13 @@
         <v>45418</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
@@ -8320,13 +9069,13 @@
         <v>45419</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
@@ -8343,13 +9092,13 @@
         <v>45420</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1">
@@ -8366,13 +9115,13 @@
         <v>45421</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1">
@@ -8389,13 +9138,13 @@
         <v>45422</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1">
@@ -8412,13 +9161,13 @@
         <v>45423</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1">
@@ -8435,13 +9184,13 @@
         <v>45424</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="F16" s="21">
         <v>18384</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1">
@@ -8458,13 +9207,13 @@
         <v>45425</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1">
@@ -8481,13 +9230,13 @@
         <v>45426</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
@@ -8504,13 +9253,13 @@
         <v>45427</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">
@@ -8527,13 +9276,13 @@
         <v>45428</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1">
@@ -8550,13 +9299,13 @@
         <v>45429</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
     </row>
   </sheetData>

--- a/Документы/Импорт.xlsx
+++ b/Документы/Импорт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Saaaveeesss\Диплом\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB8F926-6B09-4708-A98D-6AA50BC2BA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73477FDD-15B7-4BDA-89D6-4F31296F74C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Группы инструментов" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="956">
   <si>
     <t>Наименование</t>
   </si>
@@ -2896,6 +2896,9 @@
   </si>
   <si>
     <t>Неснижаемый остаток</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -4001,7 +4004,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
@@ -7921,303 +7924,412 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FE6614-A04E-404E-AAE3-FDF84764F67F}">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>791</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>567</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>576</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>605</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>609</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>629</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>663</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>688</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>706</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>715</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>724</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="13" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>193</v>
       </c>
     </row>

--- a/Документы/Импорт.xlsx
+++ b/Документы/Импорт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Saaaveeesss\Диплом\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73477FDD-15B7-4BDA-89D6-4F31296F74C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453D51B1-6FF8-41E9-8276-32CF001C373C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Группы инструментов" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="962">
   <si>
     <t>Наименование</t>
   </si>
@@ -2899,18 +2899,44 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>003000004</t>
+  </si>
+  <si>
+    <t>004400042</t>
+  </si>
+  <si>
+    <t>001100052</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>adsf</t>
+  </si>
+  <si>
+    <t>dd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3003,54 +3029,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3334,7 +3362,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -3994,7 +4022,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4002,10 +4030,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:XFD86"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5366,2522 +5394,2494 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>405</v>
-      </c>
+      <c r="A51" s="25" t="s">
+        <v>957</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H51" s="24">
-        <v>1</v>
-      </c>
-      <c r="I51" s="24">
-        <v>33</v>
-      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="11" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="H52" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" s="24">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="11" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H53" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" s="24">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="11" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>345</v>
+        <v>414</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H54" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="24">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="11" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>423</v>
+        <v>345</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>332</v>
+        <v>420</v>
       </c>
       <c r="H55" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" s="24">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>429</v>
+        <v>332</v>
       </c>
       <c r="H56" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" s="24">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="11" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>235</v>
+        <v>429</v>
       </c>
       <c r="H57" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="24">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="H58" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" s="24">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="11" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>223</v>
+        <v>376</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>225</v>
+        <v>297</v>
       </c>
       <c r="H59" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" s="24">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>442</v>
+        <v>223</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>444</v>
+        <v>225</v>
       </c>
       <c r="H60" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="24">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="11" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H61" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" s="24">
-        <v>87</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="11" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>197</v>
+        <v>449</v>
       </c>
       <c r="H62" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" s="24">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="11" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>176</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="E63" s="6"/>
       <c r="F63" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H63" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="24">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="11" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="E64" s="6"/>
+        <v>456</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="F64" s="6" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>462</v>
+        <v>202</v>
       </c>
       <c r="H64" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" s="24">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="11" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H65" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" s="24">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="11" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>335</v>
+        <v>465</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>251</v>
+        <v>467</v>
       </c>
       <c r="H66" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="24">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="11" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6" t="s">
-        <v>473</v>
-      </c>
+      <c r="D67" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>474</v>
+        <v>251</v>
       </c>
       <c r="H67" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" s="24">
-        <v>79</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="11" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="E68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6" t="s">
+        <v>473</v>
+      </c>
       <c r="F68" s="6" t="s">
-        <v>331</v>
+        <v>436</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H68" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" s="24">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="11" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
-        <v>481</v>
+        <v>331</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H69" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="24">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="11" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>376</v>
+        <v>480</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>387</v>
+        <v>482</v>
       </c>
       <c r="H70" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" s="24">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>487</v>
+        <v>376</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6" t="s">
-        <v>270</v>
+        <v>436</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>271</v>
+        <v>387</v>
       </c>
       <c r="H71" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" s="24">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="11" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>491</v>
+        <v>271</v>
       </c>
       <c r="H72" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" s="24">
-        <v>82</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="11" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
-        <v>495</v>
+        <v>280</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H73" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" s="24">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="11" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
-        <v>260</v>
+        <v>495</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>261</v>
+        <v>496</v>
       </c>
       <c r="H74" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" s="24">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="11" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H75" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="24">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
-        <v>506</v>
+        <v>265</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>507</v>
+        <v>266</v>
       </c>
       <c r="H76" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" s="24">
-        <v>85</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="11" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H77" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" s="24">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="11" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="H78" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" s="24">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="11" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="H79" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" s="24">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="11" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H80" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" s="24">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="11" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6" t="s">
-        <v>341</v>
+        <v>526</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H81" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" s="24">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="11" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6" t="s">
-        <v>535</v>
+        <v>341</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>225</v>
+        <v>531</v>
       </c>
       <c r="H82" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" s="24">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="11" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>540</v>
+        <v>225</v>
       </c>
       <c r="H83" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" s="24">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="11" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>764</v>
+        <v>537</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>176</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="E84" s="6"/>
       <c r="F84" s="6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>202</v>
+        <v>540</v>
       </c>
       <c r="H84" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" s="24">
-        <v>91</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="11" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>547</v>
+        <v>176</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>386</v>
+        <v>544</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>548</v>
+        <v>202</v>
       </c>
       <c r="H85" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" s="24">
-        <v>28</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="11" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>552</v>
+        <v>386</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="H86" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" s="24">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="11" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>332</v>
+        <v>553</v>
       </c>
       <c r="H87" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" s="24">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="11" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>207</v>
+        <v>332</v>
       </c>
       <c r="H88" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" s="24">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>196</v>
+        <v>560</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H89" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" s="24">
-        <v>84</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="11" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>565</v>
+        <v>769</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>563</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>566</v>
+        <v>196</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="H90" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" s="24">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="11" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>770</v>
+        <v>565</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>212</v>
+        <v>566</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="H91" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" s="24">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="11" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>571</v>
+        <v>770</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>574</v>
+        <v>212</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>575</v>
+        <v>215</v>
       </c>
       <c r="H92" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" s="24">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="11" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>771</v>
+        <v>571</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>219</v>
+        <v>574</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>220</v>
+        <v>575</v>
       </c>
       <c r="H93" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="24">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="11" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>582</v>
+        <v>219</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>583</v>
+        <v>220</v>
       </c>
       <c r="H94" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" s="24">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="11" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>224</v>
+        <v>582</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>225</v>
+        <v>583</v>
       </c>
       <c r="H95" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" s="24">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="11" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>590</v>
+        <v>225</v>
       </c>
       <c r="H96" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" s="24">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="11" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>225</v>
+        <v>590</v>
       </c>
       <c r="H97" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" s="24">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="11" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>597</v>
+        <v>229</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>598</v>
+        <v>225</v>
       </c>
       <c r="H98" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" s="24">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="11" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D99" s="6">
-        <v>17</v>
+      <c r="D99" s="6" t="s">
+        <v>595</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>297</v>
+        <v>598</v>
       </c>
       <c r="H99" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" s="24">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="11" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D100" s="6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>301</v>
+        <v>601</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>604</v>
+        <v>297</v>
       </c>
       <c r="H100" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" s="24">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="11" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D101" s="6" t="s">
-        <v>607</v>
+      <c r="D101" s="6">
+        <v>19</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>238</v>
+        <v>603</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>608</v>
+        <v>301</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>240</v>
+        <v>604</v>
       </c>
       <c r="H101" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" s="24">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D102" s="12">
-        <v>18537</v>
+        <v>165</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>607</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>600</v>
+        <v>238</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>245</v>
+        <v>608</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H102" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" s="24">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D103" s="6" t="s">
-        <v>611</v>
+      <c r="D103" s="12">
+        <v>18537</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>428</v>
+        <v>245</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>613</v>
+        <v>246</v>
       </c>
       <c r="H103" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" s="24">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="11" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>249</v>
+        <v>612</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>250</v>
+        <v>428</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>553</v>
+        <v>613</v>
       </c>
       <c r="H104" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" s="24">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="H105" s="24">
-        <v>2</v>
-      </c>
-      <c r="I105" s="24">
-        <v>69</v>
-      </c>
+      <c r="A105" s="25" t="s">
+        <v>958</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>959</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>960</v>
+      </c>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="24"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="11" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="E106" s="6"/>
+        <v>615</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>249</v>
+      </c>
       <c r="F106" s="6" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>623</v>
+        <v>553</v>
       </c>
       <c r="H106" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" s="24">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="11" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="E107" s="6"/>
+        <v>617</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>618</v>
+      </c>
       <c r="F107" s="6" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="H107" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" s="24">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="11" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>259</v>
+        <v>622</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="H108" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" s="24">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="11" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>266</v>
+        <v>628</v>
       </c>
       <c r="H109" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" s="24">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="11" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>635</v>
+        <v>259</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="H110" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" s="24">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="11" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>640</v>
+        <v>266</v>
       </c>
       <c r="H111" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" s="24">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="11" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>487</v>
+        <v>635</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>496</v>
+        <v>636</v>
       </c>
       <c r="H112" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" s="24">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="11" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>643</v>
+        <v>789</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>491</v>
+        <v>640</v>
       </c>
       <c r="H113" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" s="24">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="11" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>647</v>
+        <v>790</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>648</v>
+        <v>487</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6" t="s">
-        <v>470</v>
+        <v>270</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>649</v>
+        <v>496</v>
       </c>
       <c r="H114" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" s="24">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="11" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6" t="s">
-        <v>275</v>
+        <v>645</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>653</v>
+        <v>491</v>
       </c>
       <c r="H115" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" s="24">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="11" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6" t="s">
-        <v>280</v>
+        <v>470</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="H116" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" s="24">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="11" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6" t="s">
-        <v>661</v>
+        <v>275</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="H117" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" s="24">
-        <v>94</v>
+        <v>53</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="11" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>284</v>
+        <v>165</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>285</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="E118" s="6"/>
       <c r="F118" s="6" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>287</v>
+        <v>657</v>
       </c>
       <c r="H118" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" s="24">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="11" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>669</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="E119" s="6"/>
       <c r="F119" s="6" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="H119" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" s="24">
-        <v>43</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="11" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>165</v>
+        <v>284</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>626</v>
+        <v>285</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H120" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" s="24">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="11" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="H121" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" s="24">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="11" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="H122" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" s="24">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="11" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>428</v>
+        <v>679</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>302</v>
+        <v>680</v>
       </c>
       <c r="H123" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" s="24">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="11" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>600</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>327</v>
+        <v>235</v>
       </c>
       <c r="H124" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" s="24">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="11" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>695</v>
+        <v>428</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>696</v>
+        <v>302</v>
       </c>
       <c r="H125" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" s="24">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="11" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>600</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>700</v>
+        <v>301</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H126" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" s="24">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="11" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>603</v>
+        <v>694</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="H127" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" s="24">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="11" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>709</v>
+        <v>600</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="H128" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" s="24">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="11" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>714</v>
+        <v>603</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>316</v>
+        <v>704</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>235</v>
+        <v>705</v>
       </c>
       <c r="H129" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" s="24">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="11" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>321</v>
+        <v>710</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H130" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" s="24">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="11" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>722</v>
+        <v>316</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>723</v>
+        <v>235</v>
       </c>
       <c r="H131" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" s="24">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="11" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="H132" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" s="24">
-        <v>96</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="11" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>730</v>
+        <v>699</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>275</v>
+        <v>722</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="H133" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" s="24">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="11" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>626</v>
+        <v>727</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>736</v>
+        <v>326</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="H134" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" s="24">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="11" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>741</v>
+        <v>275</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>292</v>
+        <v>732</v>
       </c>
       <c r="H135" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" s="24">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="11" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H136" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" s="24">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="11" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>603</v>
+        <v>740</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>704</v>
+        <v>741</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>705</v>
+        <v>292</v>
       </c>
       <c r="H137" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" s="24">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="11" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>749</v>
+        <v>699</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>341</v>
+        <v>700</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="H138" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" s="24">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="11" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>340</v>
+        <v>603</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>753</v>
+        <v>704</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>342</v>
+        <v>705</v>
       </c>
       <c r="H139" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" s="24">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="11" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>757</v>
+        <v>340</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>758</v>
+        <v>341</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>553</v>
+        <v>292</v>
       </c>
       <c r="H140" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" s="24">
         <v>65</v>
@@ -7889,25 +7889,25 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="11" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>762</v>
+        <v>340</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="H141" s="24">
         <v>2</v>
@@ -7916,7 +7916,81 @@
         <v>65</v>
       </c>
     </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="H142" s="24">
+        <v>0</v>
+      </c>
+      <c r="I142" s="24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H143" s="24">
+        <v>2</v>
+      </c>
+      <c r="I143" s="24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="11" t="s">
+        <v>956</v>
+      </c>
+      <c r="B144" s="26" t="s">
+        <v>961</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="24"/>
+      <c r="I144" s="24"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7926,7 +8000,7 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>

--- a/Документы/Импорт.xlsx
+++ b/Документы/Импорт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Saaaveeesss\Диплом\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453D51B1-6FF8-41E9-8276-32CF001C373C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4196A149-5DED-4B5E-B86F-4102A760E80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Группы инструментов" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Цеха" sheetId="5" r:id="rId5"/>
     <sheet name="Склады" sheetId="6" r:id="rId6"/>
     <sheet name="Остатки" sheetId="7" r:id="rId7"/>
+    <sheet name="Лист1" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2923,12 +2924,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3029,56 +3038,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4022,7 +4032,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4032,8 +4042,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4104,7 +4114,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="27" t="s">
         <v>184</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -7990,7 +8000,7 @@
       <c r="I144" s="24"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7998,10 +8008,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FE6614-A04E-404E-AAE3-FDF84764F67F}">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8027,10 +8037,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>193</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8041,7 +8051,7 @@
         <v>193</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>542</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8049,362 +8059,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>567</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>576</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>584</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>599</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>621</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>629</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>641</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>654</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>663</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>672</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>681</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>697</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>706</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>715</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>724</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>742</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>754</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="13" t="s">
         <v>542</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>549</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -9497,4 +9155,371 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1876738F-504A-44AC-A6BB-9C5EABB00F29}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>25</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>28</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>29</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>31</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>32</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>33</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>34</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>35</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Документы/Импорт.xlsx
+++ b/Документы/Импорт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Saaaveeesss\Диплом\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4196A149-5DED-4B5E-B86F-4102A760E80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F7F9F4-6269-4CA8-AFEC-765035DB13FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Группы инструментов" sheetId="2" r:id="rId1"/>
@@ -8010,7 +8010,7 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
@@ -9161,11 +9161,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1876738F-504A-44AC-A6BB-9C5EABB00F29}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">

--- a/Документы/Импорт.xlsx
+++ b/Документы/Импорт.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Saaaveeesss\Диплом\Документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\DW\Diplom\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F7F9F4-6269-4CA8-AFEC-765035DB13FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E472218-DC79-4321-A102-7E536F9BE77C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Группы инструментов" sheetId="2" r:id="rId1"/>
     <sheet name="Номенклатура инструментов" sheetId="1" r:id="rId2"/>
-    <sheet name="Аналоги инструментов" sheetId="3" r:id="rId3"/>
-    <sheet name="Поставщики" sheetId="4" r:id="rId4"/>
-    <sheet name="Цеха" sheetId="5" r:id="rId5"/>
-    <sheet name="Склады" sheetId="6" r:id="rId6"/>
-    <sheet name="Остатки" sheetId="7" r:id="rId7"/>
-    <sheet name="Лист1" sheetId="9" r:id="rId8"/>
+    <sheet name="Лист2" sheetId="10" r:id="rId3"/>
+    <sheet name="Аналоги инструментов" sheetId="3" r:id="rId4"/>
+    <sheet name="Поставщики" sheetId="4" r:id="rId5"/>
+    <sheet name="Цеха" sheetId="5" r:id="rId6"/>
+    <sheet name="Склады" sheetId="6" r:id="rId7"/>
+    <sheet name="Остатки" sheetId="7" r:id="rId8"/>
+    <sheet name="Лист1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="964">
   <si>
     <t>Наименование</t>
   </si>
@@ -2918,18 +2919,32 @@
   </si>
   <si>
     <t>dd</t>
+  </si>
+  <si>
+    <t>000400012</t>
+  </si>
+  <si>
+    <t>RRRRR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3038,57 +3053,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4032,7 +4051,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4043,7 +4062,7 @@
   <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8000,12 +8019,92 @@
       <c r="I144" s="24"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723D4B10-7F1A-4459-9F14-7A5BAA50E04E}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>953</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="28" t="s">
+        <v>962</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>963</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="24">
+        <v>0</v>
+      </c>
+      <c r="I2" s="24">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FE6614-A04E-404E-AAE3-FDF84764F67F}">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:C4"/>
@@ -8070,7 +8169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A0E1F-085C-491F-BEE1-D39030F3C372}">
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:E16"/>
@@ -8364,13 +8463,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4084A77-5CED-4FBA-BFAE-5FC3B75121A8}">
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8479,7 +8578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D8EE27-F367-4B11-B129-6F1768C09639}">
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:C14"/>
@@ -8649,7 +8748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3C1A28-29A3-45B6-820F-E32124768EB5}">
   <sheetPr codeName="Лист7"/>
   <dimension ref="A1:G21"/>
@@ -9157,11 +9256,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1876738F-504A-44AC-A6BB-9C5EABB00F29}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Документы/Импорт.xlsx
+++ b/Документы/Импорт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\DW\Diplom\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E472218-DC79-4321-A102-7E536F9BE77C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED023EB-700A-446E-A229-F3CB404B2ABA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Группы инструментов" sheetId="2" r:id="rId1"/>
@@ -3053,7 +3053,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3108,6 +3108,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -8028,7 +8029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723D4B10-7F1A-4459-9F14-7A5BAA50E04E}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -8468,8 +8469,8 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8486,7 +8487,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -8494,7 +8495,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -8502,7 +8503,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="A4" s="30">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -8510,7 +8511,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
+      <c r="A5" s="30">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -8518,7 +8519,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
+      <c r="A6" s="30">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -8526,7 +8527,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7">
+      <c r="A7" s="30">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -8534,7 +8535,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8">
+      <c r="A8" s="30">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -8542,7 +8543,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9">
+      <c r="A9" s="30">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -8550,7 +8551,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10">
+      <c r="A10" s="30">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -8558,7 +8559,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11">
+      <c r="A11" s="30">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -8566,7 +8567,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12">
+      <c r="A12" s="30">
         <v>0</v>
       </c>
       <c r="B12" t="s">
@@ -8575,6 +8576,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Документы/Импорт.xlsx
+++ b/Документы/Импорт.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\DW\Diplom\Документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Saaaveeesss\Диплом\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED023EB-700A-446E-A229-F3CB404B2ABA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D9B73A-F9BD-480A-A0B4-43825FE5FBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Группы инструментов" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="963">
   <si>
     <t>Наименование</t>
   </si>
@@ -2760,9 +2760,6 @@
   </si>
   <si>
     <t>BATCH-20240501-002</t>
-  </si>
-  <si>
-    <t>230.50</t>
   </si>
   <si>
     <t>BATCH-20240502-003</t>
@@ -4102,10 +4099,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="22" t="s">
+        <v>952</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>953</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
@@ -5425,7 +5422,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="25" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -6911,13 +6908,13 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="25" t="s">
+        <v>957</v>
+      </c>
+      <c r="B105" s="26" t="s">
         <v>958</v>
       </c>
-      <c r="B105" s="26" t="s">
+      <c r="C105" s="26" t="s">
         <v>959</v>
-      </c>
-      <c r="C105" s="26" t="s">
-        <v>960</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -8006,10 +8003,10 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="11" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -8069,18 +8066,18 @@
         <v>6</v>
       </c>
       <c r="H1" s="22" t="s">
+        <v>952</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>953</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="28" t="s">
+        <v>961</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>962</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>963</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>165</v>
@@ -8123,7 +8120,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>791</v>
@@ -8469,7 +8466,7 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
@@ -8755,8 +8752,8 @@
   <sheetPr codeName="Лист7"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8832,8 +8829,8 @@
       <c r="E3" s="16" t="s">
         <v>908</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>909</v>
+      <c r="F3" s="21">
+        <v>230.5</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>907</v>
@@ -8853,13 +8850,13 @@
         <v>45414</v>
       </c>
       <c r="E4" s="16" t="s">
+        <v>909</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>910</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="G4" s="16" t="s">
         <v>911</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1">
@@ -8876,13 +8873,13 @@
         <v>45415</v>
       </c>
       <c r="E5" s="16" t="s">
+        <v>912</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>913</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="G5" s="16" t="s">
         <v>914</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
@@ -8899,13 +8896,13 @@
         <v>45415</v>
       </c>
       <c r="E6" s="16" t="s">
+        <v>915</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>916</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="G6" s="16" t="s">
         <v>917</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1">
@@ -8922,13 +8919,13 @@
         <v>45416</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F7" s="21">
         <v>36434</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
@@ -8945,13 +8942,13 @@
         <v>45416</v>
       </c>
       <c r="E8" s="16" t="s">
+        <v>920</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>921</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>922</v>
-      </c>
       <c r="G8" s="16" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1">
@@ -8968,13 +8965,13 @@
         <v>45417</v>
       </c>
       <c r="E9" s="16" t="s">
+        <v>922</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>923</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="G9" s="16" t="s">
         <v>924</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1">
@@ -8991,13 +8988,13 @@
         <v>45418</v>
       </c>
       <c r="E10" s="16" t="s">
+        <v>925</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>926</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="G10" s="16" t="s">
         <v>927</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
@@ -9014,13 +9011,13 @@
         <v>45419</v>
       </c>
       <c r="E11" s="16" t="s">
+        <v>928</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>929</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="G11" s="16" t="s">
         <v>930</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
@@ -9037,13 +9034,13 @@
         <v>45420</v>
       </c>
       <c r="E12" s="16" t="s">
+        <v>931</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>932</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="G12" s="16" t="s">
         <v>933</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1">
@@ -9060,13 +9057,13 @@
         <v>45421</v>
       </c>
       <c r="E13" s="16" t="s">
+        <v>934</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>935</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="G13" s="16" t="s">
         <v>936</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1">
@@ -9083,10 +9080,10 @@
         <v>45422</v>
       </c>
       <c r="E14" s="16" t="s">
+        <v>937</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>938</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>939</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>907</v>
@@ -9106,13 +9103,13 @@
         <v>45423</v>
       </c>
       <c r="E15" s="16" t="s">
+        <v>939</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>940</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>941</v>
-      </c>
       <c r="G15" s="16" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1">
@@ -9129,13 +9126,13 @@
         <v>45424</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F16" s="21">
         <v>18384</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1">
@@ -9152,10 +9149,10 @@
         <v>45425</v>
       </c>
       <c r="E17" s="16" t="s">
+        <v>942</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>943</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>944</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>907</v>
@@ -9175,13 +9172,13 @@
         <v>45426</v>
       </c>
       <c r="E18" s="16" t="s">
+        <v>944</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>945</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>946</v>
-      </c>
       <c r="G18" s="16" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
@@ -9198,13 +9195,13 @@
         <v>45427</v>
       </c>
       <c r="E19" s="16" t="s">
+        <v>946</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>947</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>948</v>
-      </c>
       <c r="G19" s="16" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">
@@ -9221,13 +9218,13 @@
         <v>45428</v>
       </c>
       <c r="E20" s="16" t="s">
+        <v>948</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>949</v>
       </c>
-      <c r="F20" s="21" t="s">
-        <v>950</v>
-      </c>
       <c r="G20" s="16" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1">
@@ -9244,13 +9241,13 @@
         <v>45429</v>
       </c>
       <c r="E21" s="16" t="s">
+        <v>950</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>951</v>
       </c>
-      <c r="F21" s="21" t="s">
-        <v>952</v>
-      </c>
       <c r="G21" s="16" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
   </sheetData>

--- a/Документы/Импорт.xlsx
+++ b/Документы/Импорт.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Saaaveeesss\Диплом\Документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\DW\Diplom\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D9B73A-F9BD-480A-A0B4-43825FE5FBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE7A7DB-98CA-47F9-9C4B-F2DF17499C96}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Группы инструментов" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="953">
   <si>
     <t>Наименование</t>
   </si>
@@ -2750,144 +2750,54 @@
     <t>Account</t>
   </si>
   <si>
-    <t>BATCH-20240501-001</t>
-  </si>
-  <si>
     <t>150.75</t>
   </si>
   <si>
-    <t>40101-01</t>
-  </si>
-  <si>
-    <t>BATCH-20240501-002</t>
-  </si>
-  <si>
-    <t>BATCH-20240502-003</t>
-  </si>
-  <si>
     <t>5000.00</t>
   </si>
   <si>
-    <t>40101-02</t>
-  </si>
-  <si>
-    <t>BATCH-20240503-004</t>
-  </si>
-  <si>
     <t>75.20</t>
   </si>
   <si>
-    <t>40101-03</t>
-  </si>
-  <si>
-    <t>BATCH-20240503-005</t>
-  </si>
-  <si>
     <t>1200.00</t>
   </si>
   <si>
-    <t>40101-04</t>
-  </si>
-  <si>
-    <t>BATCH-20240504-006</t>
-  </si>
-  <si>
-    <t>40101-05</t>
-  </si>
-  <si>
-    <t>BATCH-20240504-007</t>
-  </si>
-  <si>
     <t>25.50</t>
   </si>
   <si>
-    <t>BATCH-20240505-008</t>
-  </si>
-  <si>
     <t>3200.00</t>
   </si>
   <si>
-    <t>40101-06</t>
-  </si>
-  <si>
-    <t>BATCH-20240506-009</t>
-  </si>
-  <si>
     <t>450.00</t>
   </si>
   <si>
-    <t>40101-07</t>
-  </si>
-  <si>
-    <t>BATCH-20240507-010</t>
-  </si>
-  <si>
     <t>8000.00</t>
   </si>
   <si>
-    <t>40101-08</t>
-  </si>
-  <si>
-    <t>BATCH-20240508-011</t>
-  </si>
-  <si>
     <t>95.00</t>
   </si>
   <si>
-    <t>40101-09</t>
-  </si>
-  <si>
-    <t>BATCH-20240509-012</t>
-  </si>
-  <si>
     <t>300.00</t>
   </si>
   <si>
-    <t>40101-10</t>
-  </si>
-  <si>
-    <t>BATCH-20240510-013</t>
-  </si>
-  <si>
     <t>180.25</t>
   </si>
   <si>
-    <t>BATCH-20240511-014</t>
-  </si>
-  <si>
     <t>75.00</t>
   </si>
   <si>
-    <t>BATCH-20240512-015</t>
-  </si>
-  <si>
-    <t>BATCH-20240513-016</t>
-  </si>
-  <si>
     <t>210.00</t>
   </si>
   <si>
-    <t>BATCH-20240514-017</t>
-  </si>
-  <si>
     <t>6200.00</t>
   </si>
   <si>
-    <t>BATCH-20240515-018</t>
-  </si>
-  <si>
     <t>80.00</t>
   </si>
   <si>
-    <t>BATCH-20240516-019</t>
-  </si>
-  <si>
     <t>15.75</t>
   </si>
   <si>
-    <t>BATCH-20240517-020</t>
-  </si>
-  <si>
     <t>1500.00</t>
   </si>
   <si>
@@ -2922,6 +2832,66 @@
   </si>
   <si>
     <t>RRRRR</t>
+  </si>
+  <si>
+    <t>20240501-001</t>
+  </si>
+  <si>
+    <t>20240501-002</t>
+  </si>
+  <si>
+    <t>20240502-003</t>
+  </si>
+  <si>
+    <t>20240503-004</t>
+  </si>
+  <si>
+    <t>20240503-005</t>
+  </si>
+  <si>
+    <t>20240504-006</t>
+  </si>
+  <si>
+    <t>20240504-007</t>
+  </si>
+  <si>
+    <t>20240505-008</t>
+  </si>
+  <si>
+    <t>20240506-009</t>
+  </si>
+  <si>
+    <t>20240507-010</t>
+  </si>
+  <si>
+    <t>20240508-011</t>
+  </si>
+  <si>
+    <t>20240509-012</t>
+  </si>
+  <si>
+    <t>20240510-013</t>
+  </si>
+  <si>
+    <t>20240511-014</t>
+  </si>
+  <si>
+    <t>20240512-015</t>
+  </si>
+  <si>
+    <t>20240513-016</t>
+  </si>
+  <si>
+    <t>20240514-017</t>
+  </si>
+  <si>
+    <t>20240515-018</t>
+  </si>
+  <si>
+    <t>20240516-019</t>
+  </si>
+  <si>
+    <t>20240517-020</t>
   </si>
 </sst>
 </file>
@@ -4059,8 +4029,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4099,10 +4069,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>952</v>
+        <v>922</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>953</v>
+        <v>923</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
@@ -5422,7 +5392,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="25" t="s">
-        <v>956</v>
+        <v>926</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -6908,13 +6878,13 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="25" t="s">
-        <v>957</v>
+        <v>927</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>958</v>
+        <v>928</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>959</v>
+        <v>929</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -8003,10 +7973,10 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="11" t="s">
-        <v>955</v>
+        <v>925</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>960</v>
+        <v>930</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -8066,18 +8036,18 @@
         <v>6</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>952</v>
+        <v>922</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>953</v>
+        <v>923</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="28" t="s">
-        <v>961</v>
+        <v>931</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>962</v>
+        <v>932</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>165</v>
@@ -8120,7 +8090,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>954</v>
+        <v>924</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>791</v>
@@ -8752,8 +8722,8 @@
   <sheetPr codeName="Лист7"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8794,460 +8764,460 @@
       <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="17">
         <v>1</v>
-      </c>
-      <c r="C2" s="17">
-        <v>101</v>
       </c>
       <c r="D2" s="20">
         <v>45413</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>933</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>905</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>906</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>907</v>
+      <c r="G2" s="16">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
-        <v>10001</v>
+      <c r="B3" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="C3" s="17">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D3" s="20">
         <v>45413</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>908</v>
+        <v>934</v>
       </c>
       <c r="F3" s="21">
         <v>230.5</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>907</v>
+      <c r="G3" s="16">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1">
       <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
-        <v>20001</v>
+      <c r="B4" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="C4" s="17">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="D4" s="20">
         <v>45414</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>909</v>
+        <v>935</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>910</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>911</v>
+        <v>906</v>
+      </c>
+      <c r="G4" s="16">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1">
       <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
-        <v>30001</v>
+      <c r="B5" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="C5" s="17">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="D5" s="20">
         <v>45415</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>912</v>
+        <v>936</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>913</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>914</v>
+        <v>907</v>
+      </c>
+      <c r="G5" s="16">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
       <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
-        <v>40001</v>
+      <c r="B6" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="C6" s="17">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="D6" s="20">
         <v>45415</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>915</v>
+        <v>937</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>916</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>917</v>
+        <v>908</v>
+      </c>
+      <c r="G6" s="16">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1">
       <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
-        <v>50001</v>
+      <c r="B7" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="C7" s="17">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="D7" s="20">
         <v>45416</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
       <c r="F7" s="21">
         <v>36434</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>919</v>
+      <c r="G7" s="16">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="17">
-        <v>60001</v>
+      <c r="B8" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="C8" s="17">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="D8" s="20">
         <v>45416</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>920</v>
+        <v>939</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>921</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>919</v>
+        <v>909</v>
+      </c>
+      <c r="G8" s="16">
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
-        <v>70001</v>
+      <c r="B9" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="C9" s="17">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="D9" s="20">
         <v>45417</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>923</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>924</v>
+        <v>910</v>
+      </c>
+      <c r="G9" s="16">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1">
       <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="17">
-        <v>80001</v>
+      <c r="B10" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="C10" s="17">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="D10" s="20">
         <v>45418</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>925</v>
+        <v>941</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>926</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>927</v>
+        <v>911</v>
+      </c>
+      <c r="G10" s="16">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="17">
-        <v>90001</v>
+      <c r="B11" s="11" t="s">
+        <v>277</v>
       </c>
       <c r="C11" s="17">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="D11" s="20">
         <v>45419</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>929</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>930</v>
+        <v>912</v>
+      </c>
+      <c r="G11" s="16">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="17">
-        <v>100001</v>
+      <c r="B12" s="11" t="s">
+        <v>282</v>
       </c>
       <c r="C12" s="17">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="D12" s="20">
         <v>45420</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>932</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>933</v>
+        <v>913</v>
+      </c>
+      <c r="G12" s="16">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1">
       <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="17">
-        <v>110001</v>
+      <c r="B13" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="C13" s="17">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="D13" s="20">
         <v>45421</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>934</v>
+        <v>944</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>935</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>936</v>
+        <v>914</v>
+      </c>
+      <c r="G13" s="16">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="17">
-        <v>120001</v>
+      <c r="B14" s="11" t="s">
+        <v>293</v>
       </c>
       <c r="C14" s="17">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="D14" s="20">
         <v>45422</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>938</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>907</v>
+        <v>915</v>
+      </c>
+      <c r="G14" s="16">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1">
       <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="17">
-        <v>130001</v>
+      <c r="B15" s="11" t="s">
+        <v>298</v>
       </c>
       <c r="C15" s="17">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="D15" s="20">
         <v>45423</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>940</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>911</v>
+        <v>916</v>
+      </c>
+      <c r="G15" s="16">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1">
       <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="17">
-        <v>140001</v>
+      <c r="B16" s="11" t="s">
+        <v>303</v>
       </c>
       <c r="C16" s="17">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="D16" s="20">
         <v>45424</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="F16" s="21">
         <v>18384</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>919</v>
+      <c r="G16" s="16">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1">
       <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="17">
-        <v>150001</v>
+      <c r="B17" s="11" t="s">
+        <v>308</v>
       </c>
       <c r="C17" s="17">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="D17" s="20">
         <v>45425</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>943</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>907</v>
+        <v>917</v>
+      </c>
+      <c r="G17" s="16">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1">
       <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="17">
-        <v>160001</v>
+      <c r="B18" s="11" t="s">
+        <v>313</v>
       </c>
       <c r="C18" s="17">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="D18" s="20">
         <v>45426</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>945</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>911</v>
+        <v>918</v>
+      </c>
+      <c r="G18" s="16">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
       <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="17">
-        <v>170001</v>
+      <c r="B19" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="C19" s="17">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="D19" s="20">
         <v>45427</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>947</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>914</v>
+        <v>919</v>
+      </c>
+      <c r="G19" s="16">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">
       <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="17">
-        <v>180001</v>
+      <c r="B20" s="11" t="s">
+        <v>323</v>
       </c>
       <c r="C20" s="17">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="D20" s="20">
         <v>45428</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>949</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>919</v>
+        <v>920</v>
+      </c>
+      <c r="G20" s="16">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1">
       <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="17">
-        <v>190001</v>
+      <c r="B21" s="11" t="s">
+        <v>359</v>
       </c>
       <c r="C21" s="17">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D21" s="20">
         <v>45429</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>951</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>917</v>
+        <v>921</v>
+      </c>
+      <c r="G21" s="16">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Документы/Импорт.xlsx
+++ b/Документы/Импорт.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\DW\Diplom\Документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Saaaveeesss\Диплом\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE7A7DB-98CA-47F9-9C4B-F2DF17499C96}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB10E004-A1A9-4714-BB46-80B9DF8441DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="956">
   <si>
     <t>Наименование</t>
   </si>
@@ -2892,18 +2892,35 @@
   </si>
   <si>
     <t>20240517-020</t>
+  </si>
+  <si>
+    <t>20240517-020-1</t>
+  </si>
+  <si>
+    <t>20240517-020-2</t>
+  </si>
+  <si>
+    <t>4500.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3020,62 +3037,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4019,7 +4037,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7987,7 +8005,7 @@
       <c r="I144" s="24"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8720,10 +8738,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3C1A28-29A3-45B6-820F-E32124768EB5}">
   <sheetPr codeName="Лист7"/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9218,6 +9236,52 @@
       </c>
       <c r="G21" s="16">
         <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A22" s="17">
+        <v>21</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0</v>
+      </c>
+      <c r="D22" s="20">
+        <v>45429</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>953</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>921</v>
+      </c>
+      <c r="G22" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A23" s="17">
+        <v>22</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0</v>
+      </c>
+      <c r="D23" s="20">
+        <v>45429</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>954</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>955</v>
+      </c>
+      <c r="G23" s="16">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Документы/Импорт.xlsx
+++ b/Документы/Импорт.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Saaaveeesss\Диплом\Документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\DW\Diplom\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB10E004-A1A9-4714-BB46-80B9DF8441DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF712F6-E322-4017-B0C0-84AF71D077D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="960">
   <si>
     <t>Наименование</t>
   </si>
@@ -2901,6 +2901,18 @@
   </si>
   <si>
     <t>4500.00</t>
+  </si>
+  <si>
+    <t>20250642-02-5</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>20254642-02-5</t>
+  </si>
+  <si>
+    <t>2200.00</t>
   </si>
 </sst>
 </file>
@@ -3037,7 +3049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3094,6 +3106,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -8738,10 +8753,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3C1A28-29A3-45B6-820F-E32124768EB5}">
   <sheetPr codeName="Лист7"/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9282,6 +9297,52 @@
       </c>
       <c r="G23" s="16">
         <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A24" s="18">
+        <v>23</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="18">
+        <v>2</v>
+      </c>
+      <c r="D24" s="20">
+        <v>45428</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>956</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>957</v>
+      </c>
+      <c r="G24" s="19">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A25" s="18">
+        <v>24</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="18">
+        <v>1</v>
+      </c>
+      <c r="D25" s="20">
+        <v>45420</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>958</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>959</v>
+      </c>
+      <c r="G25" s="19">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
